--- a/data/residential-mobility/individual-model-scenarios/case-study-data.xlsx
+++ b/data/residential-mobility/individual-model-scenarios/case-study-data.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="108">
   <si>
     <t xml:space="preserve">Cooksville</t>
   </si>
@@ -69,156 +70,156 @@
     <t xml:space="preserve">Single</t>
   </si>
   <si>
+    <t xml:space="preserve">age_10_to_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attached</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_15_to_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apt small</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_20_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apt large</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_25_29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bedrooms avg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_30_34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_35_39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_40_44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Dwellings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_45_49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deleted Dwellings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_50_54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_55_59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_60_64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_65_69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_70_74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_75_79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_80_84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_85_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sex_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bedroom 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sex_f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bedroom 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">low_inc_yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bedroom 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">low_inc_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">married_yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">married_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">existing_avgbedrooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">existing_singledetached</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0209</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.1941</t>
   </si>
   <si>
-    <t xml:space="preserve">age_10_to_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attached</t>
+    <t xml:space="preserve">existing_rowtownsemi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0923</t>
   </si>
   <si>
     <t xml:space="preserve">0.3117</t>
   </si>
   <si>
-    <t xml:space="preserve">age_15_to_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apt small</t>
+    <t xml:space="preserve">existing_aptsmall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7374</t>
   </si>
   <si>
     <t xml:space="preserve">0.3874</t>
   </si>
   <si>
-    <t xml:space="preserve">age_20_24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apt large</t>
+    <t xml:space="preserve">existing_aptlarge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1495</t>
   </si>
   <si>
     <t xml:space="preserve">0.0837</t>
   </si>
   <si>
-    <t xml:space="preserve">age_25_29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bedrooms avg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age_30_34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age_35_39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age_40_44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Dwellings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age_45_49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deleted Dwellings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age_50_54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age_55_59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRIOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age_60_64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age_65_69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age_70_74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age_75_79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age_80_84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age_85_100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sex_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bedroom 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sex_f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bedroom 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">low_inc_yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bedroom 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">low_inc_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">married_yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">married_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">existing_avgbedrooms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">existing_singledetached</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">existing_rowtownsemi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">existing_aptsmall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">existing_aptlarge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1495</t>
-  </si>
-  <si>
     <t xml:space="preserve">scenario1_totaldwellings</t>
   </si>
   <si>
@@ -328,6 +329,24 @@
   </si>
   <si>
     <t xml:space="preserve">2021S051235300060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low income population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenario A low-income out movers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenario B low-Income out movers</t>
   </si>
 </sst>
 </file>
@@ -445,7 +464,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -566,10 +585,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -596,10 +611,6 @@
     </xf>
     <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -685,11 +696,11 @@
   </sheetPr>
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="22.96"/>
@@ -796,7 +807,7 @@
         <v>12</v>
       </c>
       <c r="K4" s="13" t="n">
-        <v>759</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -823,14 +834,14 @@
       <c r="J5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="14" t="s">
-        <v>15</v>
+      <c r="K5" s="14" t="n">
+        <v>0.4124</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8"/>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>0.0471</v>
@@ -849,16 +860,16 @@
       </c>
       <c r="H6" s="11"/>
       <c r="J6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="K6" s="14" t="n">
+        <v>0.1975</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8"/>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>0.047</v>
@@ -877,16 +888,16 @@
       </c>
       <c r="H7" s="11"/>
       <c r="J7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="K7" s="14" t="n">
+        <v>0.1541</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8"/>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>0.0692</v>
@@ -905,16 +916,16 @@
       </c>
       <c r="H8" s="11"/>
       <c r="J8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="K8" s="14" t="n">
+        <v>0.2364</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8"/>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>0.0902</v>
@@ -933,16 +944,16 @@
       </c>
       <c r="H9" s="11"/>
       <c r="J9" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K9" s="13" t="n">
-        <v>2.506</v>
+        <v>2.859</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8"/>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>0.0965</v>
@@ -969,7 +980,7 @@
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8"/>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>0.086</v>
@@ -988,13 +999,13 @@
       </c>
       <c r="H11" s="11"/>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8"/>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>0.0644</v>
@@ -1013,16 +1024,16 @@
       </c>
       <c r="H12" s="11"/>
       <c r="J12" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K12" s="16" t="n">
-        <v>10498</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8"/>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C13" s="3" t="n">
         <v>0.0539</v>
@@ -1041,16 +1052,16 @@
       </c>
       <c r="H13" s="11"/>
       <c r="J13" s="15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K13" s="16" t="n">
-        <v>0</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8"/>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C14" s="3" t="n">
         <v>0.0481</v>
@@ -1069,17 +1080,17 @@
       </c>
       <c r="H14" s="11"/>
       <c r="J14" s="17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K14" s="18" t="n">
         <f aca="false">K12+K4-K13</f>
-        <v>11257</v>
+        <v>3732</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8"/>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C15" s="3" t="n">
         <v>0.0581</v>
@@ -1098,19 +1109,19 @@
       </c>
       <c r="H15" s="11"/>
       <c r="L15" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8"/>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>0.0604</v>
@@ -1131,30 +1142,28 @@
       <c r="J16" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="19" t="n">
-        <v>0</v>
-      </c>
+      <c r="K16" s="19"/>
       <c r="L16" s="3" t="n">
         <f aca="false">K$12*K16</f>
         <v>0</v>
       </c>
       <c r="M16" s="3" t="n">
         <f aca="false">K5*(K$4-K$13)</f>
-        <v>147.3219</v>
+        <v>565.4004</v>
       </c>
       <c r="N16" s="3" t="n">
         <f aca="false">SUM(L16:M16)</f>
-        <v>147.3219</v>
+        <v>565.4004</v>
       </c>
       <c r="O16" s="20" t="n">
         <f aca="false">N16/N$20</f>
-        <v>0.0131075520475521</v>
+        <v>0.412235105957617</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8"/>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>0.0536</v>
@@ -1173,32 +1182,30 @@
       </c>
       <c r="H17" s="11"/>
       <c r="J17" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="19" t="n">
-        <v>0</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="K17" s="19"/>
       <c r="L17" s="3" t="n">
         <f aca="false">K$12*K17</f>
         <v>0</v>
       </c>
       <c r="M17" s="3" t="n">
         <f aca="false">K6*(K$4-K$13)</f>
-        <v>236.5803</v>
+        <v>270.7725</v>
       </c>
       <c r="N17" s="3" t="n">
         <f aca="false">SUM(L17:M17)</f>
-        <v>236.5803</v>
+        <v>270.7725</v>
       </c>
       <c r="O17" s="20" t="n">
         <f aca="false">N17/N$20</f>
-        <v>0.0210490673530242</v>
+        <v>0.197421031587365</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8"/>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C18" s="3" t="n">
         <v>0.0422</v>
@@ -1217,32 +1224,30 @@
       </c>
       <c r="H18" s="11"/>
       <c r="J18" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="19" t="n">
-        <v>0.42</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="K18" s="19"/>
       <c r="L18" s="3" t="n">
         <f aca="false">K$12*K18</f>
-        <v>4409.16</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3" t="n">
         <f aca="false">K7*(K$4-K$13)</f>
-        <v>294.0366</v>
+        <v>211.2711</v>
       </c>
       <c r="N18" s="3" t="n">
         <f aca="false">SUM(L18:M18)</f>
-        <v>4703.1966</v>
+        <v>211.2711</v>
       </c>
       <c r="O18" s="20" t="n">
         <f aca="false">N18/N$20</f>
-        <v>0.418453700531763</v>
+        <v>0.154038384646142</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8"/>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>0.0341</v>
@@ -1261,32 +1266,30 @@
       </c>
       <c r="H19" s="11"/>
       <c r="J19" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="19" t="n">
-        <v>0.58</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="K19" s="19"/>
       <c r="L19" s="3" t="n">
         <f aca="false">K$12*K19</f>
-        <v>6088.84</v>
+        <v>0</v>
       </c>
       <c r="M19" s="3" t="n">
         <f aca="false">K8*(K$4-K$13)</f>
-        <v>63.5283</v>
+        <v>324.1044</v>
       </c>
       <c r="N19" s="3" t="n">
         <f aca="false">SUM(L19:M19)</f>
-        <v>6152.3683</v>
+        <v>324.1044</v>
       </c>
       <c r="O19" s="20" t="n">
         <f aca="false">N19/N$20</f>
-        <v>0.547389680067661</v>
+        <v>0.236305477808876</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8"/>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C20" s="3" t="n">
         <v>0.0204</v>
@@ -1305,23 +1308,23 @@
       </c>
       <c r="H20" s="11"/>
       <c r="J20" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K20" s="3" t="n">
         <f aca="false">SUM(K16:K19)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="n">
         <f aca="false">SUM(L16:L19)</f>
-        <v>10498</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="n">
         <f aca="false">SUM(M16:M19)</f>
-        <v>741.4671</v>
+        <v>1371.5484</v>
       </c>
       <c r="N20" s="3" t="n">
         <f aca="false">SUM(N16:N19)</f>
-        <v>11239.4671</v>
+        <v>1371.5484</v>
       </c>
       <c r="O20" s="3" t="n">
         <f aca="false">SUM(O16:O19)</f>
@@ -1331,7 +1334,7 @@
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8"/>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>0.0217</v>
@@ -1353,7 +1356,7 @@
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8"/>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C22" s="3" t="n">
         <v>0.4849</v>
@@ -1371,20 +1374,18 @@
         <v>0.5285</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="K22" s="16" t="n">
-        <v>0.5</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="K22" s="16"/>
       <c r="L22" s="3" t="n">
         <f aca="false">K22*K$12*1</f>
-        <v>5249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8"/>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>0.5151</v>
@@ -1402,20 +1403,18 @@
         <v>0.4715</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23" s="16" t="n">
-        <v>0.4</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="K23" s="16"/>
       <c r="L23" s="3" t="n">
         <f aca="false">K23*K$12*2</f>
-        <v>8398.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8"/>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>0.1291</v>
@@ -1433,20 +1432,18 @@
         <v>0.152</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="K24" s="16" t="n">
-        <v>0.1</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="K24" s="16"/>
       <c r="L24" s="3" t="n">
         <f aca="false">K24*K$12*3</f>
-        <v>3149.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8"/>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C25" s="3" t="n">
         <v>0.8709</v>
@@ -1464,33 +1461,33 @@
         <v>0.848</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K25" s="3" t="n">
         <f aca="false">SUM(K22:K24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="3" t="n">
         <f aca="false">SUM(L22:L24)</f>
-        <v>16796.8</v>
+        <v>0</v>
       </c>
       <c r="M25" s="3" t="n">
         <f aca="false">K9*(K4-K13)</f>
-        <v>1902.054</v>
+        <v>3919.689</v>
       </c>
       <c r="N25" s="3" t="n">
         <f aca="false">L25+M25</f>
-        <v>18698.854</v>
+        <v>3919.689</v>
       </c>
       <c r="O25" s="21" t="n">
         <f aca="false">N25/K14</f>
-        <v>1.6610867904415</v>
+        <v>1.05029180064309</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8"/>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>0.479</v>
@@ -1511,7 +1508,7 @@
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8"/>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>0.521</v>
@@ -1538,10 +1535,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C29" s="3" t="n">
         <v>2.38</v>
@@ -1569,7 +1566,7 @@
         <v>10</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C30" s="25" t="n">
         <v>0.0717</v>
@@ -1581,10 +1578,10 @@
         <v>0.4124</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="H30" s="27"/>
       <c r="I30" s="28"/>
@@ -1596,7 +1593,7 @@
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8"/>
       <c r="B31" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C31" s="25" t="n">
         <v>0.1687</v>
@@ -1608,10 +1605,10 @@
         <v>0.1975</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="H31" s="27"/>
       <c r="I31" s="28"/>
@@ -1623,7 +1620,7 @@
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8"/>
       <c r="B32" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C32" s="25" t="n">
         <v>0.0782</v>
@@ -1635,10 +1632,10 @@
         <v>0.1541</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="H32" s="27"/>
       <c r="I32" s="28"/>
@@ -1648,7 +1645,7 @@
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8"/>
       <c r="B33" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" s="25" t="n">
         <v>0.6814</v>
@@ -1660,24 +1657,21 @@
         <v>0.2364</v>
       </c>
       <c r="F33" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="26" t="s">
         <v>64</v>
-      </c>
-      <c r="G33" s="26" t="s">
-        <v>24</v>
       </c>
       <c r="H33" s="27"/>
       <c r="I33" s="28"/>
       <c r="J33" s="28"/>
       <c r="K33" s="29"/>
-      <c r="M33" s="30"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="31"/>
+      <c r="C34" s="30"/>
       <c r="I34" s="28"/>
       <c r="J34" s="28"/>
       <c r="K34" s="29"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
@@ -1686,11 +1680,14 @@
       <c r="B35" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="32" t="n">
+      <c r="C35" s="31" t="n">
         <v>37074</v>
       </c>
       <c r="D35" s="9" t="n">
         <v>10027</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>3732</v>
       </c>
       <c r="F35" s="3" t="n">
         <v>19941</v>
@@ -1704,7 +1701,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>66</v>
@@ -1714,6 +1711,9 @@
       </c>
       <c r="D36" s="4" t="n">
         <v>1.761</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>2.309</v>
       </c>
       <c r="F36" s="26" t="s">
         <v>67</v>
@@ -1738,10 +1738,13 @@
       <c r="D37" s="4" t="n">
         <v>0.0772112653874599</v>
       </c>
-      <c r="F37" s="33" t="n">
+      <c r="E37" s="3" t="n">
+        <v>0.218033388885502</v>
+      </c>
+      <c r="F37" s="32" t="n">
         <v>0.0134975034634817</v>
       </c>
-      <c r="G37" s="34" t="n">
+      <c r="G37" s="33" t="n">
         <v>0.0125546306231495</v>
       </c>
       <c r="I37" s="28"/>
@@ -1759,10 +1762,13 @@
       <c r="D38" s="4" t="n">
         <v>0.156096914336726</v>
       </c>
-      <c r="F38" s="33" t="n">
+      <c r="E38" s="3" t="n">
+        <v>0.591603655087141</v>
+      </c>
+      <c r="F38" s="32" t="n">
         <v>0.0596085918506873</v>
       </c>
-      <c r="G38" s="34" t="n">
+      <c r="G38" s="33" t="n">
         <v>0.0201611456220283</v>
       </c>
       <c r="I38" s="28"/>
@@ -1780,10 +1786,13 @@
       <c r="D39" s="4" t="n">
         <v>0.108046292665342</v>
       </c>
-      <c r="F39" s="33" t="n">
+      <c r="E39" s="3" t="n">
+        <v>0.0946148442836947</v>
+      </c>
+      <c r="F39" s="32" t="n">
         <v>0.529341199612307</v>
       </c>
-      <c r="G39" s="34" t="n">
+      <c r="G39" s="33" t="n">
         <v>0.0250575162463066</v>
       </c>
       <c r="I39" s="28"/>
@@ -1801,10 +1810,13 @@
       <c r="D40" s="4" t="n">
         <v>0.658645527610472</v>
       </c>
-      <c r="F40" s="35" t="n">
+      <c r="E40" s="3" t="n">
+        <v>0.095748111743662</v>
+      </c>
+      <c r="F40" s="34" t="n">
         <v>0.397552705073524</v>
       </c>
-      <c r="G40" s="34" t="n">
+      <c r="G40" s="33" t="n">
         <v>0.942226707508516</v>
       </c>
       <c r="I40" s="28"/>
@@ -1812,7 +1824,7 @@
       <c r="K40" s="29"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="34"/>
+      <c r="C41" s="33"/>
       <c r="I41" s="28"/>
       <c r="J41" s="28"/>
       <c r="K41" s="29"/>
@@ -1824,11 +1836,14 @@
       <c r="B42" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="32" t="n">
+      <c r="C42" s="31" t="n">
         <v>30946.88</v>
       </c>
       <c r="D42" s="9" t="n">
         <v>9674</v>
+      </c>
+      <c r="E42" s="3" t="n">
+        <v>3874</v>
       </c>
       <c r="F42" s="3" t="n">
         <v>19824</v>
@@ -1842,7 +1857,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>73</v>
@@ -1852,6 +1867,12 @@
       </c>
       <c r="D43" s="4" t="n">
         <v>1.766</v>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>2.234</v>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>1.6284</v>
       </c>
       <c r="G43" s="3" t="n">
         <v>1.661</v>
@@ -1873,7 +1894,13 @@
       <c r="D44" s="4" t="n">
         <v>0.0794302878969151</v>
       </c>
-      <c r="G44" s="34" t="n">
+      <c r="E44" s="3" t="n">
+        <v>0.225270094911076</v>
+      </c>
+      <c r="F44" s="4" t="n">
+        <v>0.0135771597041978</v>
+      </c>
+      <c r="G44" s="4" t="n">
         <v>0.0131075520475521</v>
       </c>
       <c r="I44" s="28"/>
@@ -1891,7 +1918,13 @@
       <c r="D45" s="4" t="n">
         <v>0.156243397723382</v>
       </c>
-      <c r="G45" s="34" t="n">
+      <c r="E45" s="3" t="n">
+        <v>0.484645047939863</v>
+      </c>
+      <c r="F45" s="4" t="n">
+        <v>0.216794238836753</v>
+      </c>
+      <c r="G45" s="4" t="n">
         <v>0.0210490673530242</v>
       </c>
       <c r="I45" s="28"/>
@@ -1909,7 +1942,13 @@
       <c r="D46" s="4" t="n">
         <v>0.109513343773496</v>
       </c>
-      <c r="G46" s="34" t="n">
+      <c r="E46" s="3" t="n">
+        <v>0.177502250442991</v>
+      </c>
+      <c r="F46" s="4" t="n">
+        <v>0.52572972218981</v>
+      </c>
+      <c r="G46" s="4" t="n">
         <v>0.418453700531763</v>
       </c>
       <c r="I46" s="28"/>
@@ -1927,7 +1966,13 @@
       <c r="D47" s="4" t="n">
         <v>0.654812970606207</v>
       </c>
-      <c r="G47" s="34" t="n">
+      <c r="E47" s="3" t="n">
+        <v>0.11258260670607</v>
+      </c>
+      <c r="F47" s="4" t="n">
+        <v>0.243898879269239</v>
+      </c>
+      <c r="G47" s="4" t="n">
         <v>0.547389680067661</v>
       </c>
       <c r="I47" s="28"/>
@@ -1969,11 +2014,11 @@
   </sheetPr>
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G45" activeCellId="0" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="22.96"/>
@@ -2052,7 +2097,7 @@
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8"/>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>0.0471</v>
@@ -2064,7 +2109,7 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8"/>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>0.047</v>
@@ -2076,7 +2121,7 @@
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8"/>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>0.0692</v>
@@ -2088,7 +2133,7 @@
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8"/>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>0.0902</v>
@@ -2100,7 +2145,7 @@
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8"/>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>0.0965</v>
@@ -2112,7 +2157,7 @@
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8"/>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>0.086</v>
@@ -2124,7 +2169,7 @@
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8"/>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>0.0644</v>
@@ -2136,7 +2181,7 @@
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8"/>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C13" s="3" t="n">
         <v>0.0539</v>
@@ -2148,7 +2193,7 @@
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8"/>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C14" s="3" t="n">
         <v>0.0481</v>
@@ -2160,7 +2205,7 @@
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8"/>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C15" s="3" t="n">
         <v>0.0581</v>
@@ -2172,7 +2217,7 @@
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8"/>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>0.0604</v>
@@ -2184,7 +2229,7 @@
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8"/>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>0.0536</v>
@@ -2196,7 +2241,7 @@
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8"/>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C18" s="3" t="n">
         <v>0.0422</v>
@@ -2208,7 +2253,7 @@
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8"/>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>0.0341</v>
@@ -2220,7 +2265,7 @@
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8"/>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C20" s="3" t="n">
         <v>0.0204</v>
@@ -2232,7 +2277,7 @@
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8"/>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>0.0217</v>
@@ -2244,7 +2289,7 @@
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8"/>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C22" s="3" t="n">
         <v>0.4849</v>
@@ -2256,7 +2301,7 @@
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8"/>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>0.5151</v>
@@ -2268,7 +2313,7 @@
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8"/>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>0.1291</v>
@@ -2277,7 +2322,7 @@
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8"/>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C25" s="3" t="n">
         <v>0.8709</v>
@@ -2286,7 +2331,7 @@
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8"/>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>0.479</v>
@@ -2298,7 +2343,7 @@
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8"/>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>0.521</v>
@@ -2322,19 +2367,19 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="M28" s="36" t="s">
+      <c r="M28" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="O28" s="36" t="s">
+      <c r="O28" s="35" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C29" s="3" t="n">
         <v>2.38</v>
@@ -2350,10 +2395,10 @@
       <c r="L29" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="M29" s="37" t="s">
+      <c r="M29" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="O29" s="37" t="s">
+      <c r="O29" s="36" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2362,9 +2407,9 @@
         <v>10</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="31" t="n">
+        <v>53</v>
+      </c>
+      <c r="C30" s="30" t="n">
         <v>0.0717</v>
       </c>
       <c r="D30" s="0" t="n">
@@ -2388,19 +2433,19 @@
       <c r="L30" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="M30" s="37" t="s">
+      <c r="M30" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="O30" s="37" t="s">
+      <c r="O30" s="36" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8"/>
       <c r="B31" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="31" t="n">
+        <v>56</v>
+      </c>
+      <c r="C31" s="30" t="n">
         <v>0.1687</v>
       </c>
       <c r="D31" s="0" t="n">
@@ -2424,19 +2469,19 @@
       <c r="L31" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="M31" s="37" t="s">
+      <c r="M31" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="O31" s="37" t="s">
+      <c r="O31" s="36" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8"/>
       <c r="B32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="31" t="n">
+        <v>59</v>
+      </c>
+      <c r="C32" s="30" t="n">
         <v>0.0782</v>
       </c>
       <c r="D32" s="0" t="n">
@@ -2458,11 +2503,11 @@
       <c r="J32" s="28"/>
       <c r="K32" s="28"/>
       <c r="L32" s="28"/>
-      <c r="M32" s="38" t="n">
+      <c r="M32" s="37" t="n">
         <f aca="false">M29*(C35-C28)</f>
         <v>11884.4</v>
       </c>
-      <c r="N32" s="38" t="n">
+      <c r="N32" s="37" t="n">
         <f aca="false">M32*1</f>
         <v>11884.4</v>
       </c>
@@ -2470,9 +2515,9 @@
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8"/>
       <c r="B33" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="31" t="n">
+        <v>62</v>
+      </c>
+      <c r="C33" s="30" t="n">
         <v>0.6814</v>
       </c>
       <c r="D33" s="0" t="n">
@@ -2494,17 +2539,17 @@
       <c r="J33" s="28"/>
       <c r="K33" s="28"/>
       <c r="L33" s="28"/>
-      <c r="M33" s="38" t="n">
+      <c r="M33" s="37" t="n">
         <f aca="false">M30*(C35-C28)</f>
         <v>8913.3</v>
       </c>
-      <c r="N33" s="39" t="n">
+      <c r="N33" s="37" t="n">
         <f aca="false">M33*2</f>
         <v>17826.6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="31"/>
+      <c r="C34" s="30"/>
       <c r="D34" s="0"/>
       <c r="E34" s="0"/>
       <c r="F34" s="0"/>
@@ -2514,11 +2559,11 @@
       <c r="J34" s="28"/>
       <c r="K34" s="28"/>
       <c r="L34" s="28"/>
-      <c r="M34" s="39" t="n">
+      <c r="M34" s="37" t="n">
         <f aca="false">M31*(C35-C28)</f>
         <v>8913.3</v>
       </c>
-      <c r="N34" s="39" t="n">
+      <c r="N34" s="37" t="n">
         <f aca="false">M34*3</f>
         <v>26739.9</v>
       </c>
@@ -2530,7 +2575,7 @@
       <c r="B35" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="32" t="n">
+      <c r="C35" s="31" t="n">
         <v>37074</v>
       </c>
       <c r="D35" s="0" t="n">
@@ -2544,18 +2589,18 @@
       <c r="J35" s="28"/>
       <c r="K35" s="28"/>
       <c r="L35" s="28"/>
-      <c r="M35" s="38" t="n">
+      <c r="M35" s="37" t="n">
         <f aca="false">SUM(M32:M34)</f>
         <v>29711</v>
       </c>
-      <c r="N35" s="38" t="n">
+      <c r="N35" s="37" t="n">
         <f aca="false">SUM(N32:N34)</f>
         <v>56450.9</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>66</v>
@@ -2567,12 +2612,12 @@
       <c r="E36" s="0"/>
       <c r="F36" s="0"/>
       <c r="G36" s="0"/>
-      <c r="H36" s="38"/>
+      <c r="H36" s="37"/>
       <c r="I36" s="3"/>
       <c r="J36" s="28"/>
       <c r="K36" s="28"/>
       <c r="L36" s="28"/>
-      <c r="N36" s="38" t="n">
+      <c r="N36" s="37" t="n">
         <f aca="false">C28*C29</f>
         <v>17523.94</v>
       </c>
@@ -2584,7 +2629,7 @@
       <c r="B37" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="34" t="n">
+      <c r="C37" s="33" t="n">
         <v>0.0142398203592814</v>
       </c>
       <c r="D37" s="0"/>
@@ -2607,7 +2652,7 @@
         <v>0.0142398203592814</v>
       </c>
       <c r="L37" s="28"/>
-      <c r="N37" s="38" t="n">
+      <c r="N37" s="37" t="n">
         <f aca="false">N35+N36</f>
         <v>73974.84</v>
       </c>
@@ -2617,7 +2662,7 @@
       <c r="B38" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="34" t="n">
+      <c r="C38" s="33" t="n">
         <v>0.0335042914171657</v>
       </c>
       <c r="D38" s="0"/>
@@ -2640,7 +2685,7 @@
         <v>0.0335042914171657</v>
       </c>
       <c r="L38" s="28"/>
-      <c r="N38" s="38" t="n">
+      <c r="N38" s="37" t="n">
         <f aca="false">N37/C35</f>
         <v>1.99532934131737</v>
       </c>
@@ -2650,7 +2695,7 @@
       <c r="B39" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="34" t="n">
+      <c r="C39" s="33" t="n">
         <v>0.0636145708582834</v>
       </c>
       <c r="D39" s="0"/>
@@ -2679,7 +2724,7 @@
       <c r="B40" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="34" t="n">
+      <c r="C40" s="33" t="n">
         <v>0.888641317365269</v>
       </c>
       <c r="D40" s="0"/>
@@ -2704,7 +2749,7 @@
       <c r="L40" s="28"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="34"/>
+      <c r="C41" s="33"/>
       <c r="D41" s="0"/>
       <c r="E41" s="0"/>
       <c r="F41" s="0"/>
@@ -2722,7 +2767,7 @@
       <c r="B42" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="32" t="n">
+      <c r="C42" s="31" t="n">
         <v>30946.88</v>
       </c>
       <c r="D42" s="0" t="n">
@@ -2742,7 +2787,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>73</v>
@@ -2767,7 +2812,7 @@
       <c r="B44" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="34" t="n">
+      <c r="C44" s="33" t="n">
         <v>0.0142398203592814</v>
       </c>
       <c r="D44" s="0"/>
@@ -2796,7 +2841,7 @@
       <c r="B45" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="34" t="n">
+      <c r="C45" s="33" t="n">
         <v>0.0335042914171657</v>
       </c>
       <c r="D45" s="0"/>
@@ -2825,7 +2870,7 @@
       <c r="B46" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="34" t="n">
+      <c r="C46" s="33" t="n">
         <v>0.0855050277822733</v>
       </c>
       <c r="D46" s="0"/>
@@ -2854,7 +2899,7 @@
       <c r="B47" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="34" t="n">
+      <c r="C47" s="33" t="n">
         <v>0.701483557209905</v>
       </c>
       <c r="D47" s="0"/>
@@ -2890,7 +2935,7 @@
         <v>30946.88</v>
       </c>
       <c r="K48" s="28"/>
-      <c r="L48" s="36"/>
+      <c r="L48" s="35"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F49" s="23"/>
@@ -2925,11 +2970,11 @@
   </sheetPr>
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.57"/>
   </cols>
@@ -3855,4 +3900,64 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B5:D10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.4"/>
+  </cols>
+  <sheetData>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/data/residential-mobility/individual-model-scenarios/case-study-data.xlsx
+++ b/data/residential-mobility/individual-model-scenarios/case-study-data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="120">
   <si>
     <t xml:space="preserve">Cooksville</t>
   </si>
@@ -257,6 +257,42 @@
   </si>
   <si>
     <t xml:space="preserve">scenario2_aptlarge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scenario1_totaldwellings_percchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scenario1_avgbedrooms_percchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scenario1_singledetached_percchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scenario1_rowtownsemi_percchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scenario1_aptsmall_percchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scenario1_aptlarge_percchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scenario2_totaldwellings_percchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scenario2_avgbedrooms_percchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scenario2_singledetached_percchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scenario2_rowtownsemi_percchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scenario2_aptsmall_percchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scenario2_aptlarge_percchange</t>
   </si>
   <si>
     <t xml:space="preserve">Scenario 2 (Optimized)</t>
@@ -694,13 +730,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G52" activeCellId="0" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="22.96"/>
@@ -1985,9 +2021,252 @@
       <c r="K48" s="22"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
+      <c r="B49" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="9" t="n">
+        <v>403.517587939699</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>372.080979284369</v>
+      </c>
+      <c r="E49" s="9" t="n">
+        <v>112.166003411029</v>
+      </c>
+      <c r="F49" s="31" t="n">
+        <v>48.5584444609998</v>
+      </c>
+      <c r="G49" s="31" t="n">
+        <v>1448.35309617918</v>
+      </c>
       <c r="H49" s="22"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="9" t="n">
+        <v>-35.7142857142857</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>-32.5287356321839</v>
+      </c>
+      <c r="E50" s="9" t="n">
+        <v>-19.2374956278419</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>-0.74224021592442</v>
+      </c>
+      <c r="G50" s="9" t="n">
+        <v>-33.8188347964884</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="9" t="n">
+        <v>-12.6578840146681</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>-2.48804233307282</v>
+      </c>
+      <c r="E51" s="9" t="n">
+        <v>12.1708844083405</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>-4.05894169177998</v>
+      </c>
+      <c r="G51" s="9" t="n">
+        <v>0.149413687478176</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="9" t="n">
+        <v>-12.6578840146679</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>319.649112661446</v>
+      </c>
+      <c r="E52" s="9" t="n">
+        <v>535.535104319977</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>-4.0589416917797</v>
+      </c>
+      <c r="G52" s="9" t="n">
+        <v>0.149413687478025</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="9" t="n">
+        <v>306.65833487615</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>67.7296930269655</v>
+      </c>
+      <c r="E53" s="9" t="n">
+        <v>30.2664073655311</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>6.6423992453538</v>
+      </c>
+      <c r="G53" s="9" t="n">
+        <v>0.149413687478062</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="9" t="n">
+        <v>561.461493204446</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>2029.68510736727</v>
+      </c>
+      <c r="E54" s="9" t="n">
+        <v>-14.0672834060686</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>295.048906066792</v>
+      </c>
+      <c r="G54" s="9" t="n">
+        <v>17330.1032242954</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="9" t="n">
+        <v>320.302594051338</v>
+      </c>
+      <c r="D56" s="9" t="n">
+        <v>355.461393596987</v>
+      </c>
+      <c r="E56" s="9" t="n">
+        <v>120.238772029562</v>
+      </c>
+      <c r="F56" s="9" t="n">
+        <v>47.6868062281159</v>
+      </c>
+      <c r="G56" s="9" t="n">
+        <v>1383.13570487484</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" s="9" t="n">
+        <v>-15.9770037850021</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>-32.3371647509579</v>
+      </c>
+      <c r="E57" s="9" t="n">
+        <v>-21.860790486184</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>9.87854251012146</v>
+      </c>
+      <c r="G57" s="9" t="n">
+        <v>-33.7190742218675</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" s="9" t="n">
+        <v>-12.6582226922109</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>-3.21714922595285</v>
+      </c>
+      <c r="E58" s="9" t="n">
+        <v>20.3036107618776</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>-4.05897826018926</v>
+      </c>
+      <c r="G58" s="9" t="n">
+        <v>0.155994050642836</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" s="9" t="n">
+        <v>-12.6582226922108</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>305.255328402163</v>
+      </c>
+      <c r="E59" s="9" t="n">
+        <v>440.443697359411</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>246.886768607318</v>
+      </c>
+      <c r="G59" s="9" t="n">
+        <v>0.155994050643039</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="9" t="n">
+        <v>455.700982445775</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>64.0220327936284</v>
+      </c>
+      <c r="E60" s="9" t="n">
+        <v>153.685124400053</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>5.29338704828814</v>
+      </c>
+      <c r="G60" s="9" t="n">
+        <v>1502.02277773789</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" s="9" t="n">
+        <v>422.233363603296</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>1942.75361738141</v>
+      </c>
+      <c r="E61" s="9" t="n">
+        <v>4.88601968203052</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>140.94077941064</v>
+      </c>
+      <c r="G61" s="9" t="n">
+        <v>9599.56008349296</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2018,7 +2297,7 @@
       <selection pane="topLeft" activeCell="G45" activeCellId="0" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="22.96"/>
@@ -2368,10 +2647,10 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="M28" s="35" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="O28" s="35" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2396,10 +2675,10 @@
         <v>1</v>
       </c>
       <c r="M29" s="36" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="O29" s="36" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2434,10 +2713,10 @@
         <v>2</v>
       </c>
       <c r="M30" s="36" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="O30" s="36" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2470,10 +2749,10 @@
         <v>3</v>
       </c>
       <c r="M31" s="36" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="O31" s="36" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2974,47 +3253,47 @@
       <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3022,7 +3301,7 @@
         <v>35300054</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C2" s="11" t="n">
         <v>0.1317</v>
@@ -3064,7 +3343,7 @@
         <v>35300055</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C3" s="11" t="n">
         <v>0.0737</v>
@@ -3106,7 +3385,7 @@
         <v>35300056</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C4" s="11" t="n">
         <v>0.1549</v>
@@ -3148,7 +3427,7 @@
         <v>35300059</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C5" s="11" t="n">
         <v>0.1742</v>
@@ -3190,7 +3469,7 @@
         <v>35300060</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C6" s="11" t="n">
         <v>0.1061</v>
@@ -3913,7 +4192,7 @@
       <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.4"/>
   </cols>
@@ -3925,30 +4204,30 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/residential-mobility/individual-model-scenarios/case-study-data.xlsx
+++ b/data/residential-mobility/individual-model-scenarios/case-study-data.xlsx
@@ -8,10 +8,11 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="number gen" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="dwellings" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="draft1" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="draft2" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="draft3" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="127">
   <si>
     <t xml:space="preserve">Cooksville</t>
   </si>
@@ -70,24 +71,36 @@
     <t xml:space="preserve">Single</t>
   </si>
   <si>
+    <t xml:space="preserve">0.1941</t>
+  </si>
+  <si>
     <t xml:space="preserve">age_10_to_14</t>
   </si>
   <si>
     <t xml:space="preserve">Attached</t>
   </si>
   <si>
+    <t xml:space="preserve">0.3117</t>
+  </si>
+  <si>
     <t xml:space="preserve">age_15_to_19</t>
   </si>
   <si>
     <t xml:space="preserve">Apt small</t>
   </si>
   <si>
+    <t xml:space="preserve">0.3874</t>
+  </si>
+  <si>
     <t xml:space="preserve">age_20_24</t>
   </si>
   <si>
     <t xml:space="preserve">Apt large</t>
   </si>
   <si>
+    <t xml:space="preserve">0.0837</t>
+  </si>
+  <si>
     <t xml:space="preserve">age_25_29</t>
   </si>
   <si>
@@ -190,36 +203,24 @@
     <t xml:space="preserve">0.0209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1941</t>
-  </si>
-  <si>
     <t xml:space="preserve">existing_rowtownsemi</t>
   </si>
   <si>
     <t xml:space="preserve">0.0923</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3117</t>
-  </si>
-  <si>
     <t xml:space="preserve">existing_aptsmall</t>
   </si>
   <si>
     <t xml:space="preserve">0.7374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3874</t>
-  </si>
-  <si>
     <t xml:space="preserve">existing_aptlarge</t>
   </si>
   <si>
     <t xml:space="preserve">0.1495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0837</t>
-  </si>
-  <si>
     <t xml:space="preserve">scenario1_totaldwellings</t>
   </si>
   <si>
@@ -293,6 +294,27 @@
   </si>
   <si>
     <t xml:space="preserve">scenario2_aptlarge_percchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Existing dwellings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current proposed dwellings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenario 1 proposed dwellings</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># of Demolished Existing Dwellings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final total dwellings 800m stations if Scenario 1 happens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A) Existing + Scenario 1 proposed – Demolished</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B) Existing + Current proposed + Scenario 1 proposed – Demolished</t>
   </si>
   <si>
     <t xml:space="preserve">Scenario 2 (Optimized)</t>
@@ -389,7 +411,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0"/>
@@ -397,8 +419,9 @@
     <numFmt numFmtId="168" formatCode="General"/>
     <numFmt numFmtId="169" formatCode="@"/>
     <numFmt numFmtId="170" formatCode="#,##0.000"/>
+    <numFmt numFmtId="171" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -429,8 +452,20 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -500,7 +535,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -553,12 +588,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -589,19 +628,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -613,20 +652,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -637,15 +680,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -730,22 +781,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G52" activeCellId="0" sqref="G52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J60" activeCellId="0" sqref="J60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="22.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="37.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="14.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="14.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="3" width="14.39"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="11.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.68"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="11" style="3" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="11" style="3" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -810,7 +861,7 @@
         <v>13423</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>759</v>
+        <v>1124</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>9</v>
@@ -843,7 +894,7 @@
         <v>12</v>
       </c>
       <c r="K4" s="13" t="n">
-        <v>1759</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -870,14 +921,14 @@
       <c r="J5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="14" t="n">
-        <v>0.4124</v>
+      <c r="K5" s="14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8"/>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>0.0471</v>
@@ -896,16 +947,16 @@
       </c>
       <c r="H6" s="11"/>
       <c r="J6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="14" t="n">
-        <v>0.1975</v>
+        <v>17</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8"/>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>0.047</v>
@@ -924,16 +975,16 @@
       </c>
       <c r="H7" s="11"/>
       <c r="J7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="14" t="n">
-        <v>0.1541</v>
+        <v>20</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8"/>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>0.0692</v>
@@ -952,16 +1003,16 @@
       </c>
       <c r="H8" s="11"/>
       <c r="J8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="14" t="n">
-        <v>0.2364</v>
+        <v>23</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8"/>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>0.0902</v>
@@ -980,16 +1031,16 @@
       </c>
       <c r="H9" s="11"/>
       <c r="J9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="13" t="n">
-        <v>2.859</v>
+        <v>26</v>
+      </c>
+      <c r="K9" s="15" t="n">
+        <v>2.506</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8"/>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>0.0965</v>
@@ -1016,7 +1067,7 @@
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8"/>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>0.086</v>
@@ -1035,13 +1086,13 @@
       </c>
       <c r="H11" s="11"/>
       <c r="J11" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8"/>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>0.0644</v>
@@ -1059,17 +1110,17 @@
         <v>0.0701</v>
       </c>
       <c r="H12" s="11"/>
-      <c r="J12" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="16" t="n">
-        <v>2361</v>
+      <c r="J12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="17" t="n">
+        <v>14151</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8"/>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C13" s="3" t="n">
         <v>0.0539</v>
@@ -1087,17 +1138,17 @@
         <v>0.0503</v>
       </c>
       <c r="H13" s="11"/>
-      <c r="J13" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" s="16" t="n">
-        <v>388</v>
+      <c r="J13" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8"/>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C14" s="3" t="n">
         <v>0.0481</v>
@@ -1115,18 +1166,18 @@
         <v>0.0404</v>
       </c>
       <c r="H14" s="11"/>
-      <c r="J14" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" s="18" t="n">
+      <c r="J14" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="19" t="n">
         <f aca="false">K12+K4-K13</f>
-        <v>3732</v>
+        <v>15275</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8"/>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C15" s="3" t="n">
         <v>0.0581</v>
@@ -1145,19 +1196,19 @@
       </c>
       <c r="H15" s="11"/>
       <c r="L15" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8"/>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>0.0604</v>
@@ -1175,31 +1226,37 @@
         <v>0.0533</v>
       </c>
       <c r="H16" s="11"/>
-      <c r="J16" s="15" t="s">
+      <c r="J16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="19"/>
+      <c r="K16" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" s="3" t="n">
         <f aca="false">K$12*K16</f>
         <v>0</v>
       </c>
       <c r="M16" s="3" t="n">
         <f aca="false">K5*(K$4-K$13)</f>
-        <v>565.4004</v>
+        <v>218.1684</v>
       </c>
       <c r="N16" s="3" t="n">
         <f aca="false">SUM(L16:M16)</f>
-        <v>565.4004</v>
-      </c>
-      <c r="O16" s="20" t="n">
+        <v>218.1684</v>
+      </c>
+      <c r="O16" s="21" t="n">
         <f aca="false">N16/N$20</f>
-        <v>0.412235105957617</v>
+        <v>0.0143070293573188</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <f aca="false">N19/N16</f>
+        <v>38.0516096739949</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8"/>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>0.0536</v>
@@ -1217,31 +1274,33 @@
         <v>0.0433</v>
       </c>
       <c r="H17" s="11"/>
-      <c r="J17" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="19"/>
+      <c r="J17" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" s="3" t="n">
         <f aca="false">K$12*K17</f>
         <v>0</v>
       </c>
       <c r="M17" s="3" t="n">
         <f aca="false">K6*(K$4-K$13)</f>
-        <v>270.7725</v>
+        <v>350.3508</v>
       </c>
       <c r="N17" s="3" t="n">
         <f aca="false">SUM(L17:M17)</f>
-        <v>270.7725</v>
-      </c>
-      <c r="O17" s="20" t="n">
+        <v>350.3508</v>
+      </c>
+      <c r="O17" s="21" t="n">
         <f aca="false">N17/N$20</f>
-        <v>0.197421031587365</v>
+        <v>0.0229752758922013</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8"/>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C18" s="3" t="n">
         <v>0.0422</v>
@@ -1259,31 +1318,33 @@
         <v>0.0272</v>
       </c>
       <c r="H18" s="11"/>
-      <c r="J18" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="19"/>
+      <c r="J18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="20" t="n">
+        <v>0.42</v>
+      </c>
       <c r="L18" s="3" t="n">
         <f aca="false">K$12*K18</f>
-        <v>0</v>
+        <v>5943.42</v>
       </c>
       <c r="M18" s="3" t="n">
         <f aca="false">K7*(K$4-K$13)</f>
-        <v>211.2711</v>
+        <v>435.4376</v>
       </c>
       <c r="N18" s="3" t="n">
         <f aca="false">SUM(L18:M18)</f>
-        <v>211.2711</v>
-      </c>
-      <c r="O18" s="20" t="n">
+        <v>6378.8576</v>
+      </c>
+      <c r="O18" s="21" t="n">
         <f aca="false">N18/N$20</f>
-        <v>0.154038384646142</v>
+        <v>0.418312198051397</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8"/>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>0.0341</v>
@@ -1301,31 +1362,33 @@
         <v>0.0191</v>
       </c>
       <c r="H19" s="11"/>
-      <c r="J19" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="19"/>
+      <c r="J19" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="20" t="n">
+        <v>0.58</v>
+      </c>
       <c r="L19" s="3" t="n">
         <f aca="false">K$12*K19</f>
-        <v>0</v>
+        <v>8207.58</v>
       </c>
       <c r="M19" s="3" t="n">
         <f aca="false">K8*(K$4-K$13)</f>
-        <v>324.1044</v>
+        <v>94.0788</v>
       </c>
       <c r="N19" s="3" t="n">
         <f aca="false">SUM(L19:M19)</f>
-        <v>324.1044</v>
-      </c>
-      <c r="O19" s="20" t="n">
+        <v>8301.6588</v>
+      </c>
+      <c r="O19" s="21" t="n">
         <f aca="false">N19/N$20</f>
-        <v>0.236305477808876</v>
+        <v>0.544405496699083</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8"/>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C20" s="3" t="n">
         <v>0.0204</v>
@@ -1344,23 +1407,23 @@
       </c>
       <c r="H20" s="11"/>
       <c r="J20" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K20" s="3" t="n">
         <f aca="false">SUM(K16:K19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="3" t="n">
         <f aca="false">SUM(L16:L19)</f>
-        <v>0</v>
+        <v>14151</v>
       </c>
       <c r="M20" s="3" t="n">
         <f aca="false">SUM(M16:M19)</f>
-        <v>1371.5484</v>
+        <v>1098.0356</v>
       </c>
       <c r="N20" s="3" t="n">
         <f aca="false">SUM(N16:N19)</f>
-        <v>1371.5484</v>
+        <v>15249.0356</v>
       </c>
       <c r="O20" s="3" t="n">
         <f aca="false">SUM(O16:O19)</f>
@@ -1370,7 +1433,7 @@
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8"/>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>0.0217</v>
@@ -1392,7 +1455,7 @@
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8"/>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C22" s="3" t="n">
         <v>0.4849</v>
@@ -1409,19 +1472,21 @@
       <c r="G22" s="3" t="n">
         <v>0.5285</v>
       </c>
-      <c r="J22" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="K22" s="16"/>
+      <c r="J22" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" s="17" t="n">
+        <v>0.5</v>
+      </c>
       <c r="L22" s="3" t="n">
         <f aca="false">K22*K$12*1</f>
-        <v>0</v>
+        <v>7075.5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8"/>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>0.5151</v>
@@ -1438,19 +1503,21 @@
       <c r="G23" s="3" t="n">
         <v>0.4715</v>
       </c>
-      <c r="J23" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23" s="16"/>
+      <c r="J23" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" s="17" t="n">
+        <v>0.4</v>
+      </c>
       <c r="L23" s="3" t="n">
         <f aca="false">K23*K$12*2</f>
-        <v>0</v>
+        <v>11320.8</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8"/>
       <c r="B24" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>0.1291</v>
@@ -1467,19 +1534,21 @@
       <c r="G24" s="3" t="n">
         <v>0.152</v>
       </c>
-      <c r="J24" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="K24" s="16"/>
+      <c r="J24" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" s="17" t="n">
+        <v>0.1</v>
+      </c>
       <c r="L24" s="3" t="n">
         <f aca="false">K24*K$12*3</f>
-        <v>0</v>
+        <v>4245.3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8"/>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C25" s="3" t="n">
         <v>0.8709</v>
@@ -1497,33 +1566,33 @@
         <v>0.848</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K25" s="3" t="n">
         <f aca="false">SUM(K22:K24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="3" t="n">
         <f aca="false">SUM(L22:L24)</f>
-        <v>0</v>
+        <v>22641.6</v>
       </c>
       <c r="M25" s="3" t="n">
         <f aca="false">K9*(K4-K13)</f>
-        <v>3919.689</v>
+        <v>2816.744</v>
       </c>
       <c r="N25" s="3" t="n">
         <f aca="false">L25+M25</f>
-        <v>3919.689</v>
-      </c>
-      <c r="O25" s="21" t="n">
+        <v>25458.344</v>
+      </c>
+      <c r="O25" s="22" t="n">
         <f aca="false">N25/K14</f>
-        <v>1.05029180064309</v>
+        <v>1.66666736497545</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8"/>
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>0.479</v>
@@ -1544,7 +1613,7 @@
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8"/>
       <c r="B27" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>0.521</v>
@@ -1563,18 +1632,35 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="9"/>
+      <c r="B28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="3" t="n">
+        <v>7363</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>2124</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>1759</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>13423</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>1124</v>
+      </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="L28" s="22"/>
-      <c r="N28" s="22"/>
+      <c r="L28" s="23"/>
+      <c r="N28" s="23"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C29" s="3" t="n">
         <v>2.38</v>
@@ -1591,20 +1677,20 @@
       <c r="G29" s="3" t="n">
         <v>2.506</v>
       </c>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="24"/>
-      <c r="N29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="25"/>
+      <c r="N29" s="25"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="25" t="n">
+        <v>57</v>
+      </c>
+      <c r="C30" s="26" t="n">
         <v>0.0717</v>
       </c>
       <c r="D30" s="4" t="n">
@@ -1613,25 +1699,25 @@
       <c r="E30" s="3" t="n">
         <v>0.4124</v>
       </c>
-      <c r="F30" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="G30" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="24"/>
-      <c r="N30" s="24"/>
+      <c r="F30" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="25"/>
+      <c r="N30" s="25"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8"/>
       <c r="B31" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="25" t="n">
+        <v>59</v>
+      </c>
+      <c r="C31" s="26" t="n">
         <v>0.1687</v>
       </c>
       <c r="D31" s="4" t="n">
@@ -1640,25 +1726,25 @@
       <c r="E31" s="3" t="n">
         <v>0.1975</v>
       </c>
-      <c r="F31" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="G31" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="H31" s="27"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="24"/>
-      <c r="N31" s="24"/>
+      <c r="F31" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="25"/>
+      <c r="N31" s="25"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8"/>
       <c r="B32" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="25" t="n">
+        <v>61</v>
+      </c>
+      <c r="C32" s="26" t="n">
         <v>0.0782</v>
       </c>
       <c r="D32" s="4" t="n">
@@ -1667,23 +1753,23 @@
       <c r="E32" s="3" t="n">
         <v>0.1541</v>
       </c>
-      <c r="F32" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G32" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="H32" s="27"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="29"/>
+      <c r="F32" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="30"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8"/>
       <c r="B33" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="25" t="n">
+        <v>63</v>
+      </c>
+      <c r="C33" s="26" t="n">
         <v>0.6814</v>
       </c>
       <c r="D33" s="4" t="n">
@@ -1692,22 +1778,22 @@
       <c r="E33" s="3" t="n">
         <v>0.2364</v>
       </c>
-      <c r="F33" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" s="26" t="s">
+      <c r="F33" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="H33" s="27"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="29"/>
+      <c r="G33" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="30"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="30"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="29"/>
+      <c r="C34" s="31"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="30"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
@@ -1716,8 +1802,8 @@
       <c r="B35" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="31" t="n">
-        <v>37074</v>
+      <c r="C35" s="32" t="n">
+        <v>37508</v>
       </c>
       <c r="D35" s="9" t="n">
         <v>10027</v>
@@ -1726,40 +1812,40 @@
         <v>3732</v>
       </c>
       <c r="F35" s="3" t="n">
-        <v>19941</v>
+        <v>20000</v>
       </c>
       <c r="G35" s="3" t="n">
-        <v>11752</v>
-      </c>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="29"/>
+        <v>15470</v>
+      </c>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="30"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C36" s="4" t="n">
-        <v>1.53</v>
+        <v>1.52660045856884</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>1.761</v>
+        <v>1.81394634486885</v>
       </c>
       <c r="E36" s="3" t="n">
         <v>2.309</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="F36" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="G36" s="3" t="n">
-        <v>1.6585</v>
-      </c>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="29"/>
+      <c r="G36" s="33" t="n">
+        <v>1.66582702003878</v>
+      </c>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="30"/>
     </row>
     <row r="37" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
@@ -1769,23 +1855,23 @@
         <v>68</v>
       </c>
       <c r="C37" s="4" t="n">
-        <v>0.0124373604143065</v>
+        <v>0.0122934493974619</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>0.0772112653874599</v>
-      </c>
-      <c r="E37" s="3" t="n">
+        <v>0.0791897177102033</v>
+      </c>
+      <c r="E37" s="4" t="n">
         <v>0.218033388885502</v>
       </c>
-      <c r="F37" s="32" t="n">
-        <v>0.0134975034634817</v>
-      </c>
-      <c r="G37" s="33" t="n">
-        <v>0.0125546306231495</v>
-      </c>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="29"/>
+      <c r="F37" s="34" t="n">
+        <v>0.0134574192611015</v>
+      </c>
+      <c r="G37" s="35" t="n">
+        <v>0.0141263854636543</v>
+      </c>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="30"/>
     </row>
     <row r="38" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8"/>
@@ -1793,23 +1879,23 @@
         <v>69</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>0.0292633570696445</v>
+        <v>0.0289247547189933</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>0.156096914336726</v>
-      </c>
-      <c r="E38" s="3" t="n">
+        <v>0.156227517066234</v>
+      </c>
+      <c r="E38" s="4" t="n">
         <v>0.591603655087141</v>
       </c>
-      <c r="F38" s="32" t="n">
-        <v>0.0596085918506873</v>
-      </c>
-      <c r="G38" s="33" t="n">
-        <v>0.0201611456220283</v>
-      </c>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="29"/>
+      <c r="F38" s="34" t="n">
+        <v>0.0594315692727112</v>
+      </c>
+      <c r="G38" s="35" t="n">
+        <v>0.0226851846935655</v>
+      </c>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="30"/>
     </row>
     <row r="39" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8"/>
@@ -1817,23 +1903,23 @@
         <v>70</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>0.0631570426714139</v>
+        <v>0.0631205129572358</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>0.108046292665342</v>
-      </c>
-      <c r="E39" s="3" t="n">
+        <v>0.109354296824896</v>
+      </c>
+      <c r="E39" s="4" t="n">
         <v>0.0946148442836947</v>
       </c>
-      <c r="F39" s="32" t="n">
-        <v>0.529341199612307</v>
-      </c>
-      <c r="G39" s="33" t="n">
-        <v>0.0250575162463066</v>
-      </c>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="29"/>
+      <c r="F39" s="34" t="n">
+        <v>0.528214651324501</v>
+      </c>
+      <c r="G39" s="35" t="n">
+        <v>0.0281945478032957</v>
+      </c>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="30"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8"/>
@@ -1841,29 +1927,29 @@
         <v>71</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>0.895142239844635</v>
+        <v>0.895661282926309</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>0.658645527610472</v>
-      </c>
-      <c r="E40" s="3" t="n">
+        <v>0.655228468398668</v>
+      </c>
+      <c r="E40" s="4" t="n">
         <v>0.095748111743662</v>
       </c>
-      <c r="F40" s="34" t="n">
-        <v>0.397552705073524</v>
-      </c>
-      <c r="G40" s="33" t="n">
-        <v>0.942226707508516</v>
-      </c>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="29"/>
+      <c r="F40" s="33" t="n">
+        <v>0.398896360141686</v>
+      </c>
+      <c r="G40" s="35" t="n">
+        <v>0.934993882039485</v>
+      </c>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="30"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="33"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="29"/>
+      <c r="C41" s="35"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="30"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
@@ -1872,7 +1958,7 @@
       <c r="B42" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="31" t="n">
+      <c r="C42" s="32" t="n">
         <v>30946.88</v>
       </c>
       <c r="D42" s="9" t="n">
@@ -1885,37 +1971,37 @@
         <v>19824</v>
       </c>
       <c r="G42" s="3" t="n">
-        <v>11257</v>
-      </c>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="29"/>
+        <v>15275</v>
+      </c>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="30"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>1.99974730991695</v>
+        <v>2.00160560876864</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1.766</v>
+        <v>1.77968339056872</v>
       </c>
       <c r="E43" s="3" t="n">
         <v>2.234</v>
       </c>
-      <c r="F43" s="3" t="n">
-        <v>1.6284</v>
-      </c>
-      <c r="G43" s="3" t="n">
-        <v>1.661</v>
-      </c>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="29"/>
+      <c r="F43" s="4" t="n">
+        <v>1.62924498315144</v>
+      </c>
+      <c r="G43" s="4" t="n">
+        <v>1.66666736497545</v>
+      </c>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="30"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
@@ -1925,23 +2011,23 @@
         <v>74</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>0.0148997544188451</v>
+        <v>0.0151773378098153</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>0.0794302878969151</v>
-      </c>
-      <c r="E44" s="3" t="n">
+        <v>0.0665065608482805</v>
+      </c>
+      <c r="E44" s="4" t="n">
         <v>0.225270094911076</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>0.0135771597041978</v>
+        <v>0.0135368740059331</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>0.0131075520475521</v>
-      </c>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="29"/>
+        <v>0.0143070293573188</v>
+      </c>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="30"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8"/>
@@ -1949,23 +2035,23 @@
         <v>75</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>0.0350570232978964</v>
+        <v>0.0357101379151443</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>0.156243397723382</v>
-      </c>
-      <c r="E45" s="3" t="n">
+        <v>0.155390269240802</v>
+      </c>
+      <c r="E45" s="4" t="n">
         <v>0.484645047939863</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>0.216794238836753</v>
+        <v>0.217479374757997</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>0.0210490673530242</v>
-      </c>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="29"/>
+        <v>0.0229752758922013</v>
+      </c>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="30"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="8"/>
@@ -1973,23 +2059,23 @@
         <v>76</v>
       </c>
       <c r="C46" s="4" t="n">
-        <v>0.103391740718002</v>
+        <v>0.103268628419078</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>0.109513343773496</v>
-      </c>
-      <c r="E46" s="3" t="n">
+        <v>0.100969145592815</v>
+      </c>
+      <c r="E46" s="4" t="n">
         <v>0.177502250442991</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>0.52572972218981</v>
+        <v>0.524565317725057</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>0.418453700531763</v>
-      </c>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="29"/>
+        <v>0.418312198051397</v>
+      </c>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="30"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8"/>
@@ -1997,68 +2083,78 @@
         <v>77</v>
       </c>
       <c r="C47" s="4" t="n">
-        <v>0.846651481565257</v>
+        <v>0.845843895855963</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>0.654812970606207</v>
-      </c>
-      <c r="E47" s="3" t="n">
+        <v>0.677134024318103</v>
+      </c>
+      <c r="E47" s="4" t="n">
         <v>0.11258260670607</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>0.243898879269239</v>
+        <v>0.244418433511013</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>0.547389680067661</v>
-      </c>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="29"/>
+        <v>0.544405496699083</v>
+      </c>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="30"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="22"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="23"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C49" s="9" t="n">
-        <v>403.517587939699</v>
+        <f aca="false">100*(C35-C3)/C3</f>
+        <v>409.411924487301</v>
       </c>
       <c r="D49" s="9" t="n">
+        <f aca="false">100*(D35-D3)/D3</f>
         <v>372.080979284369</v>
       </c>
       <c r="E49" s="9" t="n">
+        <f aca="false">100*(E35-E3)/E3</f>
         <v>112.166003411029</v>
       </c>
-      <c r="F49" s="31" t="n">
-        <v>48.5584444609998</v>
-      </c>
-      <c r="G49" s="31" t="n">
-        <v>1448.35309617918</v>
-      </c>
-      <c r="H49" s="22"/>
+      <c r="F49" s="9" t="n">
+        <f aca="false">100*(F35-F3)/F3</f>
+        <v>48.9979885271549</v>
+      </c>
+      <c r="G49" s="9" t="n">
+        <f aca="false">100*(G35-G3)/G3</f>
+        <v>1276.33451957295</v>
+      </c>
+      <c r="H49" s="23"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C50" s="9" t="n">
-        <v>-35.7142857142857</v>
+        <f aca="false">100*(C36-C29)/C29</f>
+        <v>-35.8571235895446</v>
       </c>
       <c r="D50" s="9" t="n">
-        <v>-32.5287356321839</v>
+        <f aca="false">100*(D36-D29)/D29</f>
+        <v>-30.5001400433389</v>
       </c>
       <c r="E50" s="9" t="n">
+        <f aca="false">100*(E36-E29)/E29</f>
         <v>-19.2374956278419</v>
       </c>
       <c r="F50" s="9" t="n">
+        <f aca="false">100*(F36-F29)/F29</f>
         <v>-0.74224021592442</v>
       </c>
       <c r="G50" s="9" t="n">
-        <v>-33.8188347964884</v>
+        <f aca="false">100*(G36-G29)/G29</f>
+        <v>-33.5264557047572</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2066,19 +2162,24 @@
         <v>80</v>
       </c>
       <c r="C51" s="9" t="n">
-        <v>-12.6578840146681</v>
+        <f aca="false">100 * (C$35*C37 - C$28*C30)/(C$28*C30)</f>
+        <v>-12.6578840146679</v>
       </c>
       <c r="D51" s="9" t="n">
-        <v>-2.48804233307282</v>
+        <f aca="false">100 * (D$35*D37 - D$28*D30)/(D$28*D30)</f>
+        <v>0.0105925251083741</v>
       </c>
       <c r="E51" s="9" t="n">
+        <f aca="false">100 * (E$35*E37 - E$28*E30)/(E$28*E30)</f>
         <v>12.1708844083405</v>
       </c>
       <c r="F51" s="9" t="n">
-        <v>-4.05894169177998</v>
+        <f aca="false">100 * (F$35*F37 - F$28*F30)/(F$28*F30)</f>
+        <v>-4.06084207317186</v>
       </c>
       <c r="G51" s="9" t="n">
-        <v>0.149413687478176</v>
+        <f aca="false">100 * (G$35*G37 - G$28*G30)/(G$28*G30)</f>
+        <v>0.16811927058755</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2086,19 +2187,24 @@
         <v>81</v>
       </c>
       <c r="C52" s="9" t="n">
+        <f aca="false">100 * (C$35*C38 - C$28*C31)/(C$28*C31)</f>
         <v>-12.6578840146679</v>
       </c>
       <c r="D52" s="9" t="n">
-        <v>319.649112661446</v>
+        <f aca="false">100 * (D$35*D38 - D$28*D31)/(D$28*D31)</f>
+        <v>320.000223506794</v>
       </c>
       <c r="E52" s="9" t="n">
+        <f aca="false">100 * (E$35*E38 - E$28*E31)/(E$28*E31)</f>
         <v>535.535104319977</v>
       </c>
       <c r="F52" s="9" t="n">
-        <v>-4.0589416917797</v>
+        <f aca="false">100 * (F$35*F38 - F$28*F31)/(F$28*F31)</f>
+        <v>-4.06084207317187</v>
       </c>
       <c r="G52" s="9" t="n">
-        <v>0.149413687478025</v>
+        <f aca="false">100 * (G$35*G38 - G$28*G31)/(G$28*G31)</f>
+        <v>0.168119270587547</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2106,19 +2212,24 @@
         <v>82</v>
       </c>
       <c r="C53" s="9" t="n">
-        <v>306.65833487615</v>
+        <f aca="false">100 * (C$35*C39 - C$28*C32)/(C$28*C32)</f>
+        <v>311.180843736204</v>
       </c>
       <c r="D53" s="9" t="n">
-        <v>67.7296930269655</v>
+        <f aca="false">100 * (D$35*D39 - D$28*D32)/(D$28*D32)</f>
+        <v>69.7602220784291</v>
       </c>
       <c r="E53" s="9" t="n">
+        <f aca="false">100 * (E$35*E39 - E$28*E32)/(E$28*E32)</f>
         <v>30.2664073655311</v>
       </c>
       <c r="F53" s="9" t="n">
-        <v>6.6423992453538</v>
+        <f aca="false">100 * (F$35*F39 - F$28*F32)/(F$28*F32)</f>
+        <v>6.73029638991481</v>
       </c>
       <c r="G53" s="9" t="n">
-        <v>0.149413687478062</v>
+        <f aca="false">100 * (G$35*G39 - G$28*G32)/(G$28*G32)</f>
+        <v>0.168119270587544</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2126,19 +2237,24 @@
         <v>83</v>
       </c>
       <c r="C54" s="9" t="n">
-        <v>561.461493204446</v>
+        <f aca="false">100 * (C$35*C40 - C$28*C33)/(C$28*C33)</f>
+        <v>569.592805729757</v>
       </c>
       <c r="D54" s="9" t="n">
-        <v>2029.68510736727</v>
+        <f aca="false">100 * (D$35*D40 - D$28*D33)/(D$28*D33)</f>
+        <v>2018.63628093589</v>
       </c>
       <c r="E54" s="9" t="n">
+        <f aca="false">100 * (E$35*E40 - E$28*E33)/(E$28*E33)</f>
         <v>-14.0672834060686</v>
       </c>
       <c r="F54" s="9" t="n">
-        <v>295.048906066792</v>
+        <f aca="false">100 * (F$35*F40 - F$28*F33)/(F$28*F33)</f>
+        <v>297.556891584714</v>
       </c>
       <c r="G54" s="9" t="n">
-        <v>17330.1032242954</v>
+        <f aca="false">100 * (G$35*G40 - G$28*G33)/(G$28*G33)</f>
+        <v>15274.7234819649</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2153,19 +2269,24 @@
         <v>84</v>
       </c>
       <c r="C56" s="9" t="n">
+        <f aca="false">100*(C42-C3)/C3</f>
         <v>320.302594051338</v>
       </c>
       <c r="D56" s="9" t="n">
+        <f aca="false">100*(D42-D3)/D3</f>
         <v>355.461393596987</v>
       </c>
       <c r="E56" s="9" t="n">
+        <f aca="false">100*(E42-E3)/E3</f>
         <v>120.238772029562</v>
       </c>
       <c r="F56" s="9" t="n">
+        <f aca="false">100*(F42-F3)/F3</f>
         <v>47.6868062281159</v>
       </c>
       <c r="G56" s="9" t="n">
-        <v>1383.13570487484</v>
+        <f aca="false">100*(G42-G3)/G3</f>
+        <v>1258.98576512456</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2173,19 +2294,24 @@
         <v>85</v>
       </c>
       <c r="C57" s="9" t="n">
-        <v>-15.9770037850021</v>
+        <f aca="false">100*(C43-C29)/C29</f>
+        <v>-15.8989240013177</v>
       </c>
       <c r="D57" s="9" t="n">
-        <v>-32.3371647509579</v>
+        <f aca="false">100*(D43-D29)/D29</f>
+        <v>-31.8128969130757</v>
       </c>
       <c r="E57" s="9" t="n">
+        <f aca="false">100*(E43-E29)/E29</f>
         <v>-21.860790486184</v>
       </c>
       <c r="F57" s="9" t="n">
-        <v>9.87854251012146</v>
+        <f aca="false">100*(F43-F29)/F29</f>
+        <v>9.93555891710093</v>
       </c>
       <c r="G57" s="9" t="n">
-        <v>-33.7190742218675</v>
+        <f aca="false">100*(G43-G29)/G29</f>
+        <v>-33.4929223872526</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2193,19 +2319,24 @@
         <v>86</v>
       </c>
       <c r="C58" s="9" t="n">
-        <v>-12.6582226922109</v>
+        <f aca="false">100 * (C$42*C44 - C$28*C30)/(C$28*C30)</f>
+        <v>-11.0310397174499</v>
       </c>
       <c r="D58" s="9" t="n">
-        <v>-3.21714922595285</v>
+        <f aca="false">100 * (D$42*D44 - D$28*D30)/(D$28*D30)</f>
+        <v>-18.9642298360069</v>
       </c>
       <c r="E58" s="9" t="n">
+        <f aca="false">100 * (E$42*E44 - E$28*E30)/(E$28*E30)</f>
         <v>20.3036107618776</v>
       </c>
       <c r="F58" s="9" t="n">
-        <v>-4.05897826018926</v>
+        <f aca="false">100 * (F$42*F44 - F$28*F30)/(F$28*F30)</f>
+        <v>-4.34365127996839</v>
       </c>
       <c r="G58" s="9" t="n">
-        <v>0.155994050642836</v>
+        <f aca="false">100 * (G$42*G44 - G$28*G30)/(G$28*G30)</f>
+        <v>0.170269128363776</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2213,19 +2344,24 @@
         <v>87</v>
       </c>
       <c r="C59" s="9" t="n">
-        <v>-12.6582226922108</v>
+        <f aca="false">100 * (C$42*C45 - C$28*C31)/(C$28*C31)</f>
+        <v>-11.0310397174499</v>
       </c>
       <c r="D59" s="9" t="n">
-        <v>305.255328402163</v>
+        <f aca="false">100 * (D$42*D45 - D$28*D31)/(D$28*D31)</f>
+        <v>303.042531775778</v>
       </c>
       <c r="E59" s="9" t="n">
+        <f aca="false">100 * (E$42*E45 - E$28*E31)/(E$28*E31)</f>
         <v>440.443697359411</v>
       </c>
       <c r="F59" s="9" t="n">
-        <v>246.886768607318</v>
+        <f aca="false">100 * (F$42*F45 - F$28*F31)/(F$28*F31)</f>
+        <v>247.983036603424</v>
       </c>
       <c r="G59" s="9" t="n">
-        <v>0.155994050643039</v>
+        <f aca="false">100 * (G$42*G45 - G$28*G31)/(G$28*G31)</f>
+        <v>0.170269128363774</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2233,19 +2369,24 @@
         <v>88</v>
       </c>
       <c r="C60" s="9" t="n">
-        <v>455.700982445775</v>
+        <f aca="false">100 * (C$42*C46 - C$28*C32)/(C$28*C32)</f>
+        <v>455.039289113326</v>
       </c>
       <c r="D60" s="9" t="n">
-        <v>64.0220327936284</v>
+        <f aca="false">100 * (D$42*D46 - D$28*D32)/(D$28*D32)</f>
+        <v>51.2250830713602</v>
       </c>
       <c r="E60" s="9" t="n">
+        <f aca="false">100 * (E$42*E46 - E$28*E32)/(E$28*E32)</f>
         <v>153.685124400053</v>
       </c>
       <c r="F60" s="9" t="n">
-        <v>5.29338704828814</v>
+        <f aca="false">100 * (F$42*F46 - F$28*F32)/(F$28*F32)</f>
+        <v>5.06017959431856</v>
       </c>
       <c r="G60" s="9" t="n">
-        <v>1502.02277773789</v>
+        <f aca="false">100 * (G$42*G46 - G$28*G32)/(G$28*G32)</f>
+        <v>1367.42468386632</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2253,19 +2394,24 @@
         <v>89</v>
       </c>
       <c r="C61" s="9" t="n">
-        <v>422.233363603296</v>
+        <f aca="false">100 * (C$42*C47 - C$28*C33)/(C$28*C33)</f>
+        <v>421.735226872249</v>
       </c>
       <c r="D61" s="9" t="n">
-        <v>1942.75361738141</v>
+        <f aca="false">100 * (D$42*D47 - D$28*D33)/(D$28*D33)</f>
+        <v>2012.38634498534</v>
       </c>
       <c r="E61" s="9" t="n">
+        <f aca="false">100 * (E$42*E47 - E$28*E33)/(E$28*E33)</f>
         <v>4.88601968203052</v>
       </c>
       <c r="F61" s="9" t="n">
-        <v>140.94077941064</v>
+        <f aca="false">100 * (F$42*F47 - F$28*F33)/(F$28*F33)</f>
+        <v>141.454032297797</v>
       </c>
       <c r="G61" s="9" t="n">
-        <v>9599.56008349296</v>
+        <f aca="false">100 * (G$42*G47 - G$28*G33)/(G$28*G33)</f>
+        <v>8739.17945602888</v>
       </c>
     </row>
   </sheetData>
@@ -2291,13 +2437,105 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="71.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.41"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="36" t="n">
+        <v>7363</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="37" t="n">
+        <v>8958</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="37" t="n">
+        <v>31077</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="37" t="n">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="37"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="37"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="36" t="n">
+        <f aca="false">B2+B4-B5</f>
+        <v>37508</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="36" t="n">
+        <f aca="false">B2+B3+B4-B5</f>
+        <v>46466</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G45" activeCellId="0" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="22.96"/>
@@ -2376,7 +2614,7 @@
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8"/>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>0.0471</v>
@@ -2388,7 +2626,7 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8"/>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>0.047</v>
@@ -2400,7 +2638,7 @@
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8"/>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>0.0692</v>
@@ -2412,7 +2650,7 @@
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8"/>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>0.0902</v>
@@ -2424,7 +2662,7 @@
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8"/>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>0.0965</v>
@@ -2436,7 +2674,7 @@
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8"/>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>0.086</v>
@@ -2448,7 +2686,7 @@
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8"/>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>0.0644</v>
@@ -2460,7 +2698,7 @@
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8"/>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C13" s="3" t="n">
         <v>0.0539</v>
@@ -2472,7 +2710,7 @@
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8"/>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C14" s="3" t="n">
         <v>0.0481</v>
@@ -2484,7 +2722,7 @@
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8"/>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C15" s="3" t="n">
         <v>0.0581</v>
@@ -2496,7 +2734,7 @@
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8"/>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>0.0604</v>
@@ -2508,7 +2746,7 @@
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8"/>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>0.0536</v>
@@ -2520,7 +2758,7 @@
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8"/>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C18" s="3" t="n">
         <v>0.0422</v>
@@ -2532,7 +2770,7 @@
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8"/>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>0.0341</v>
@@ -2544,7 +2782,7 @@
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8"/>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C20" s="3" t="n">
         <v>0.0204</v>
@@ -2556,7 +2794,7 @@
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8"/>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>0.0217</v>
@@ -2568,7 +2806,7 @@
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8"/>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C22" s="3" t="n">
         <v>0.4849</v>
@@ -2580,7 +2818,7 @@
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8"/>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>0.5151</v>
@@ -2592,7 +2830,7 @@
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8"/>
       <c r="B24" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>0.1291</v>
@@ -2601,7 +2839,7 @@
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8"/>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C25" s="3" t="n">
         <v>0.8709</v>
@@ -2610,7 +2848,7 @@
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8"/>
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>0.479</v>
@@ -2622,7 +2860,7 @@
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8"/>
       <c r="B27" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>0.521</v>
@@ -2646,19 +2884,19 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="M28" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="O28" s="35" t="s">
-        <v>91</v>
+      <c r="M28" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="O28" s="39" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C29" s="3" t="n">
         <v>2.38</v>
@@ -2669,16 +2907,16 @@
       <c r="G29" s="0"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23" t="n">
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="M29" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="O29" s="36" t="s">
-        <v>93</v>
+      <c r="M29" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="O29" s="40" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2686,9 +2924,9 @@
         <v>10</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="30" t="n">
+        <v>57</v>
+      </c>
+      <c r="C30" s="31" t="n">
         <v>0.0717</v>
       </c>
       <c r="D30" s="0" t="n">
@@ -2707,24 +2945,24 @@
         <v>527.9271</v>
       </c>
       <c r="I30" s="3"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28" t="n">
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="M30" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="O30" s="36" t="s">
-        <v>95</v>
+      <c r="M30" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="O30" s="40" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8"/>
       <c r="B31" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="30" t="n">
+        <v>59</v>
+      </c>
+      <c r="C31" s="31" t="n">
         <v>0.1687</v>
       </c>
       <c r="D31" s="0" t="n">
@@ -2743,24 +2981,24 @@
         <v>1242.1381</v>
       </c>
       <c r="I31" s="3"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28" t="n">
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="M31" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="O31" s="36" t="s">
-        <v>96</v>
+      <c r="M31" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="O31" s="40" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8"/>
       <c r="B32" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="30" t="n">
+        <v>61</v>
+      </c>
+      <c r="C32" s="31" t="n">
         <v>0.0782</v>
       </c>
       <c r="D32" s="0" t="n">
@@ -2779,14 +3017,14 @@
         <v>575.7866</v>
       </c>
       <c r="I32" s="3"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="37" t="n">
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="41" t="n">
         <f aca="false">M29*(C35-C28)</f>
         <v>11884.4</v>
       </c>
-      <c r="N32" s="37" t="n">
+      <c r="N32" s="41" t="n">
         <f aca="false">M32*1</f>
         <v>11884.4</v>
       </c>
@@ -2794,9 +3032,9 @@
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8"/>
       <c r="B33" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="30" t="n">
+        <v>63</v>
+      </c>
+      <c r="C33" s="31" t="n">
         <v>0.6814</v>
       </c>
       <c r="D33" s="0" t="n">
@@ -2815,34 +3053,34 @@
         <v>5017.1482</v>
       </c>
       <c r="I33" s="3"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="37" t="n">
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="41" t="n">
         <f aca="false">M30*(C35-C28)</f>
         <v>8913.3</v>
       </c>
-      <c r="N33" s="37" t="n">
+      <c r="N33" s="41" t="n">
         <f aca="false">M33*2</f>
         <v>17826.6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="30"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="0"/>
       <c r="E34" s="0"/>
       <c r="F34" s="0"/>
       <c r="G34" s="0"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="37" t="n">
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="41" t="n">
         <f aca="false">M31*(C35-C28)</f>
         <v>8913.3</v>
       </c>
-      <c r="N34" s="37" t="n">
+      <c r="N34" s="41" t="n">
         <f aca="false">M34*3</f>
         <v>26739.9</v>
       </c>
@@ -2854,7 +3092,7 @@
       <c r="B35" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="31" t="n">
+      <c r="C35" s="32" t="n">
         <v>37074</v>
       </c>
       <c r="D35" s="0" t="n">
@@ -2865,21 +3103,21 @@
       <c r="G35" s="0"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="37" t="n">
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="41" t="n">
         <f aca="false">SUM(M32:M34)</f>
         <v>29711</v>
       </c>
-      <c r="N35" s="37" t="n">
+      <c r="N35" s="41" t="n">
         <f aca="false">SUM(N32:N34)</f>
         <v>56450.9</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>66</v>
@@ -2891,12 +3129,12 @@
       <c r="E36" s="0"/>
       <c r="F36" s="0"/>
       <c r="G36" s="0"/>
-      <c r="H36" s="37"/>
+      <c r="H36" s="41"/>
       <c r="I36" s="3"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="N36" s="37" t="n">
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="N36" s="41" t="n">
         <f aca="false">C28*C29</f>
         <v>17523.94</v>
       </c>
@@ -2908,7 +3146,7 @@
       <c r="B37" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="33" t="n">
+      <c r="C37" s="35" t="n">
         <v>0.0142398203592814</v>
       </c>
       <c r="D37" s="0"/>
@@ -2922,16 +3160,16 @@
         <f aca="false">H37*(C$35-C$28)</f>
         <v>0</v>
       </c>
-      <c r="J37" s="28" t="n">
+      <c r="J37" s="29" t="n">
         <f aca="false">H30+I37</f>
         <v>527.9271</v>
       </c>
-      <c r="K37" s="28" t="n">
+      <c r="K37" s="29" t="n">
         <f aca="false">J37/J$42</f>
         <v>0.0142398203592814</v>
       </c>
-      <c r="L37" s="28"/>
-      <c r="N37" s="37" t="n">
+      <c r="L37" s="29"/>
+      <c r="N37" s="41" t="n">
         <f aca="false">N35+N36</f>
         <v>73974.84</v>
       </c>
@@ -2941,7 +3179,7 @@
       <c r="B38" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="33" t="n">
+      <c r="C38" s="35" t="n">
         <v>0.0335042914171657</v>
       </c>
       <c r="D38" s="0"/>
@@ -2955,16 +3193,16 @@
         <f aca="false">H38*(C$35-C$28)</f>
         <v>0</v>
       </c>
-      <c r="J38" s="28" t="n">
+      <c r="J38" s="29" t="n">
         <f aca="false">H31+I38</f>
         <v>1242.1381</v>
       </c>
-      <c r="K38" s="28" t="n">
+      <c r="K38" s="29" t="n">
         <f aca="false">J38/J$42</f>
         <v>0.0335042914171657</v>
       </c>
-      <c r="L38" s="28"/>
-      <c r="N38" s="37" t="n">
+      <c r="L38" s="29"/>
+      <c r="N38" s="41" t="n">
         <f aca="false">N37/C35</f>
         <v>1.99532934131737</v>
       </c>
@@ -2974,7 +3212,7 @@
       <c r="B39" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="33" t="n">
+      <c r="C39" s="35" t="n">
         <v>0.0636145708582834</v>
       </c>
       <c r="D39" s="0"/>
@@ -2988,22 +3226,22 @@
         <f aca="false">H39*(C$35-C$28)</f>
         <v>1782.66</v>
       </c>
-      <c r="J39" s="28" t="n">
+      <c r="J39" s="29" t="n">
         <f aca="false">H32+I39</f>
         <v>2358.4466</v>
       </c>
-      <c r="K39" s="28" t="n">
+      <c r="K39" s="29" t="n">
         <f aca="false">J39/J$42</f>
         <v>0.0636145708582834</v>
       </c>
-      <c r="L39" s="28"/>
+      <c r="L39" s="29"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8"/>
       <c r="B40" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="33" t="n">
+      <c r="C40" s="35" t="n">
         <v>0.888641317365269</v>
       </c>
       <c r="D40" s="0"/>
@@ -3017,27 +3255,27 @@
         <f aca="false">H40*(C$35-C$28)</f>
         <v>27928.34</v>
       </c>
-      <c r="J40" s="28" t="n">
+      <c r="J40" s="29" t="n">
         <f aca="false">H33+I40</f>
         <v>32945.4882</v>
       </c>
-      <c r="K40" s="28" t="n">
+      <c r="K40" s="29" t="n">
         <f aca="false">J40/J$42</f>
         <v>0.888641317365269</v>
       </c>
-      <c r="L40" s="28"/>
+      <c r="L40" s="29"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="33"/>
+      <c r="C41" s="35"/>
       <c r="D41" s="0"/>
       <c r="E41" s="0"/>
       <c r="F41" s="0"/>
       <c r="G41" s="0"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
@@ -3046,7 +3284,7 @@
       <c r="B42" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="31" t="n">
+      <c r="C42" s="32" t="n">
         <v>30946.88</v>
       </c>
       <c r="D42" s="0" t="n">
@@ -3057,16 +3295,16 @@
       <c r="G42" s="0"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="28" t="n">
+      <c r="J42" s="29" t="n">
         <f aca="false">SUM(J37:J40)</f>
         <v>37074</v>
       </c>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>73</v>
@@ -3080,9 +3318,9 @@
       <c r="G43" s="0"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
@@ -3091,7 +3329,7 @@
       <c r="B44" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="33" t="n">
+      <c r="C44" s="35" t="n">
         <v>0.0142398203592814</v>
       </c>
       <c r="D44" s="0"/>
@@ -3105,22 +3343,22 @@
         <f aca="false">H44*(C$42-C$28)</f>
         <v>0</v>
       </c>
-      <c r="J44" s="28" t="n">
+      <c r="J44" s="29" t="n">
         <f aca="false">H30+I44</f>
         <v>527.9271</v>
       </c>
-      <c r="K44" s="28" t="n">
+      <c r="K44" s="29" t="n">
         <f aca="false">J44/J$42</f>
         <v>0.0142398203592814</v>
       </c>
-      <c r="L44" s="28"/>
+      <c r="L44" s="29"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8"/>
       <c r="B45" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="33" t="n">
+      <c r="C45" s="35" t="n">
         <v>0.0335042914171657</v>
       </c>
       <c r="D45" s="0"/>
@@ -3134,22 +3372,22 @@
         <f aca="false">H45*(C$42-C$28)</f>
         <v>0</v>
       </c>
-      <c r="J45" s="28" t="n">
+      <c r="J45" s="29" t="n">
         <f aca="false">H31+I45</f>
         <v>1242.1381</v>
       </c>
-      <c r="K45" s="28" t="n">
+      <c r="K45" s="29" t="n">
         <f aca="false">J45/J$42</f>
         <v>0.0335042914171657</v>
       </c>
-      <c r="L45" s="28"/>
+      <c r="L45" s="29"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="8"/>
       <c r="B46" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="33" t="n">
+      <c r="C46" s="35" t="n">
         <v>0.0855050277822733</v>
       </c>
       <c r="D46" s="0"/>
@@ -3163,22 +3401,22 @@
         <f aca="false">H46*(C$42-C$28)</f>
         <v>2594.2268</v>
       </c>
-      <c r="J46" s="28" t="n">
+      <c r="J46" s="29" t="n">
         <f aca="false">H32+I46</f>
         <v>3170.0134</v>
       </c>
-      <c r="K46" s="28" t="n">
+      <c r="K46" s="29" t="n">
         <f aca="false">J46/J$42</f>
         <v>0.0855050277822733</v>
       </c>
-      <c r="L46" s="28"/>
+      <c r="L46" s="29"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8"/>
       <c r="B47" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="33" t="n">
+      <c r="C47" s="35" t="n">
         <v>0.701483557209905</v>
       </c>
       <c r="D47" s="0"/>
@@ -3192,15 +3430,15 @@
         <f aca="false">H47*(C$42-C$28)</f>
         <v>20989.6532</v>
       </c>
-      <c r="J47" s="28" t="n">
+      <c r="J47" s="29" t="n">
         <f aca="false">H33+I47</f>
         <v>26006.8014</v>
       </c>
-      <c r="K47" s="28" t="n">
+      <c r="K47" s="29" t="n">
         <f aca="false">J47/J$42</f>
         <v>0.701483557209905</v>
       </c>
-      <c r="L47" s="28"/>
+      <c r="L47" s="29"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D48" s="0"/>
@@ -3209,20 +3447,20 @@
       <c r="G48" s="0"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="28" t="n">
+      <c r="J48" s="29" t="n">
         <f aca="false">SUM(J44:J47)</f>
         <v>30946.88</v>
       </c>
-      <c r="K48" s="28"/>
-      <c r="L48" s="35"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="39"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H51" s="28"/>
+      <c r="H51" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3242,58 +3480,58 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3301,7 +3539,7 @@
         <v>35300054</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C2" s="11" t="n">
         <v>0.1317</v>
@@ -3343,7 +3581,7 @@
         <v>35300055</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C3" s="11" t="n">
         <v>0.0737</v>
@@ -3385,7 +3623,7 @@
         <v>35300056</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C4" s="11" t="n">
         <v>0.1549</v>
@@ -3427,7 +3665,7 @@
         <v>35300059</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C5" s="11" t="n">
         <v>0.1742</v>
@@ -3469,7 +3707,7 @@
         <v>35300060</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C6" s="11" t="n">
         <v>0.1061</v>
@@ -4181,18 +4419,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="B5:D10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.4"/>
   </cols>
@@ -4204,30 +4442,30 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
